--- a/biology/Médecine/Néopathie/Néopathie.xlsx
+++ b/biology/Médecine/Néopathie/Néopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9opathie</t>
+          <t>Néopathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La néopathie est un comportement obsessionnel consistant à être attiré de façon constante et répétitive par tout ce qui est nouveau.
 Dans ses aspects les plus extrêmes, elle relève de la psychopathologie[réf. nécessaire] et s'apparente par certains de ses aspects au collectionnisme de l'homme obsédé par l'idée de trouver à tout prix l'élément manquant à sa collection. Il faut avoir le dernier gadget, si possible "avant les autres". C'est pour ainsi dire la pratique d'une sorte de culte de la nouveauté pour la nouveauté, ne tenant absolument pas compte de son utilité ni de son prix. Le néopathe s'endette facilement pour satisfaire son besoin irrépressible d'objet nouveau[réf. nécessaire].
